--- a/data/trans_orig/P78DS3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62508812-955D-4030-B67D-7B698899D2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9938FEE-7DB5-46EB-A7D1-A8105C7A5FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75449D01-9843-4260-A376-FA03601BBA50}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E60C2E62-EC32-4DE7-8EA2-7DB3F421FDD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="131">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 3 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -131,13 +131,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -149,289 +149,280 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -849,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDF1EE6-3A14-4A1F-826C-7E358A3E6E21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D7B843-FA77-479C-A2D8-2E7342FFDA93}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1716,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,10 +1782,10 @@
         <v>503097</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -1806,13 +1797,13 @@
         <v>529305</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M20" s="7">
         <v>1050</v>
@@ -1821,13 +1812,13 @@
         <v>1032402</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1901,37 +1892,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,37 +1943,37 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,37 +1994,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,37 +2045,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,37 +2096,37 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,37 +2147,37 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,37 +2198,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>25</v>
@@ -2270,7 +2261,7 @@
         <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>25</v>
@@ -2285,7 +2276,7 @@
         <v>23</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>25</v>
@@ -2344,7 +2335,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -2362,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2377,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2413,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2428,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2458,14 +2449,14 @@
         <v>1523</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
@@ -2479,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2488,13 +2479,13 @@
         <v>1523</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -2524,13 +2515,13 @@
         <v>1614</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2545,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2581,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2617,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2632,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2668,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2683,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2713,10 +2704,10 @@
         <v>309167</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>23</v>
@@ -2728,10 +2719,10 @@
         <v>382347</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>23</v>
@@ -2743,13 +2734,13 @@
         <v>691516</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2796,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -2838,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -2853,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -2904,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -2955,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3006,7 +2997,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3057,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3108,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3159,7 +3150,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3168,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>25</v>
@@ -3192,7 +3183,7 @@
         <v>23</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>25</v>
@@ -3207,7 +3198,7 @@
         <v>23</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>25</v>
@@ -3266,7 +3257,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>10</v>
@@ -3284,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3299,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3314,7 +3305,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3350,7 +3341,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3365,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3371,13 @@
         <v>1970</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -3401,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -3416,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3452,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -3467,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3503,7 +3494,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3518,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3554,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -3569,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3605,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -3620,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,10 +3626,10 @@
         <v>262397</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>23</v>
@@ -3653,7 +3644,7 @@
         <v>23</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>25</v>
@@ -3668,7 +3659,7 @@
         <v>26</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>23</v>
@@ -3727,7 +3718,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>10</v>
@@ -3745,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -3760,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -3796,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -3811,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -3847,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -3856,13 +3847,13 @@
         <v>159</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -3871,13 +3862,13 @@
         <v>159</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -3913,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -3949,7 +3940,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -3964,7 +3955,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4000,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4015,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4051,7 +4042,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4060,13 +4051,13 @@
         <v>729</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -4075,13 +4066,13 @@
         <v>729</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,7 +4090,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>25</v>
@@ -4111,10 +4102,10 @@
         <v>764013</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>23</v>
@@ -4126,10 +4117,10 @@
         <v>1363692</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>23</v>
@@ -4188,7 +4179,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>10</v>
@@ -4200,13 +4191,13 @@
         <v>3039</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
@@ -4215,13 +4206,13 @@
         <v>3215</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M67" s="7">
         <v>6</v>
@@ -4233,10 +4224,10 @@
         <v>14</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4266,13 +4257,13 @@
         <v>881</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -4281,13 +4272,13 @@
         <v>881</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4323,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -4338,7 +4329,7 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4374,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -4389,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -4425,7 +4416,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -4440,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -4476,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -4491,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,7 +4503,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4527,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -4542,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,10 +4548,10 @@
         <v>830130</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>23</v>
@@ -4572,13 +4563,13 @@
         <v>833315</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M74" s="7">
         <v>1749</v>
@@ -4587,13 +4578,13 @@
         <v>1663445</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4658,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H76" s="7">
         <v>5</v>
@@ -4676,13 +4667,13 @@
         <v>4134</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
@@ -4691,13 +4682,13 @@
         <v>7173</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4718,7 @@
         <v>881</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>11</v>
@@ -4742,13 +4733,13 @@
         <v>881</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4754,13 @@
         <v>3492</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -4784,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M78" s="7">
         <v>3</v>
@@ -4793,7 +4784,7 @@
         <v>3652</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>11</v>
@@ -4814,13 +4805,13 @@
         <v>3543</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="H79" s="7">
         <v>3</v>
@@ -4832,10 +4823,10 @@
         <v>41</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M79" s="7">
         <v>5</v>
@@ -4844,13 +4835,13 @@
         <v>5805</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4871,13 @@
         <v>1617</v>
       </c>
       <c r="J80" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M80" s="7">
         <v>2</v>
@@ -4895,13 +4886,13 @@
         <v>1617</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4922,13 @@
         <v>696</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -4946,13 +4937,13 @@
         <v>696</v>
       </c>
       <c r="O81" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4973,13 @@
         <v>729</v>
       </c>
       <c r="J82" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -4997,13 +4988,13 @@
         <v>729</v>
       </c>
       <c r="O82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5009,13 @@
         <v>3264748</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="H83" s="7">
         <v>5114</v>
@@ -5033,13 +5024,13 @@
         <v>3645124</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M83" s="7">
         <v>8356</v>
@@ -5048,13 +5039,13 @@
         <v>6909872</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,7 +5101,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9938FEE-7DB5-46EB-A7D1-A8105C7A5FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E771125E-527E-4333-B1D4-A8CDB56AA684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E60C2E62-EC32-4DE7-8EA2-7DB3F421FDD3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1834F150-F0A5-46F3-B9E0-0D9F68B80BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D7B843-FA77-479C-A2D8-2E7342FFDA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF79645B-617B-467F-B668-699AE095804F}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
